--- a/src/main/java/com/testdata/testdatamac.xlsx
+++ b/src/main/java/com/testdata/testdatamac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anveshdurgam/git/LikeReal/src/main/java/com/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D646B7-E1B6-724A-91E0-404441D3B614}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97AEAEC-D763-C14D-84E2-7BCDF703B84C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>evening phone</t>
   </si>
   <si>
-    <t>ap1</t>
-  </si>
-  <si>
     <t>aP1</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>130-8</t>
+  </si>
+  <si>
+    <t>AP394-357</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,114 +504,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/testdatamac.xlsx
+++ b/src/main/java/com/testdata/testdatamac.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anveshdurgam/git/LikeReal/src/main/java/com/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97AEAEC-D763-C14D-84E2-7BCDF703B84C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA5955-7697-1B4F-905D-ADC9FDACD4B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
+    <sheet name="spark" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Firstname</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>AP394-357</t>
+  </si>
+  <si>
+    <t>AP156-463</t>
+  </si>
+  <si>
+    <t>account</t>
   </si>
 </sst>
 </file>
@@ -482,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840269FE-C2A4-A14D-B0A0-05210A14CF51}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +525,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -612,6 +619,36 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AE9AA1-3389-FB4C-8DB9-23BC90C3B828}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/testdatamac.xlsx
+++ b/src/main/java/com/testdata/testdatamac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anveshdurgam/git/LikeReal/src/main/java/com/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA5955-7697-1B4F-905D-ADC9FDACD4B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C3007-EDE3-1E49-AFF4-D556ADE3AD46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/java/com/testdata/testdatamac.xlsx
+++ b/src/main/java/com/testdata/testdatamac.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anveshdurgam/git/LikeReal/src/main/java/com/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C3007-EDE3-1E49-AFF4-D556ADE3AD46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB65253-7888-2243-B9A2-3882E09AAFD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="1" xr2:uid="{03AFBE34-765C-6647-99A1-4EFBBB6E164E}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Firstname</t>
   </si>
@@ -119,13 +119,23 @@
   </si>
   <si>
     <t>account</t>
+  </si>
+  <si>
+    <t>AP319-86</t>
+  </si>
+  <si>
+    <t>AP106-15</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP106-15true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +158,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,10 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AE9AA1-3389-FB4C-8DB9-23BC90C3B828}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,16 +657,27 @@
       <c r="A1" t="s">
         <v>30</v>
       </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
+      <c r="A2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
